--- a/Dataset/crp.xlsx
+++ b/Dataset/crp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coanyiam\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539BC0A3-59AF-4B24-AB5E-162C8C5B1D26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3909CD3-0DAB-4236-BB8A-16CBE0941C8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="30240" windowHeight="17100" xr2:uid="{6B358E07-E6F3-384A-80CF-1E85F7BAC725}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="21600" windowHeight="8760" xr2:uid="{6B358E07-E6F3-384A-80CF-1E85F7BAC725}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="31">
   <si>
     <t>Year</t>
   </si>
   <si>
     <t>City</t>
-  </si>
-  <si>
-    <t>Population (in Million) (2011)+</t>
   </si>
   <si>
     <t>Avon and Somerset</t>
@@ -43,9 +40,6 @@
   </si>
   <si>
     <t>Drug offences</t>
-  </si>
-  <si>
-    <t>Fraud offences</t>
   </si>
   <si>
     <t>Miscellaneous crimes against society</t>
@@ -121,6 +115,9 @@
   </si>
   <si>
     <t>Kent</t>
+  </si>
+  <si>
+    <t>Population (in Thousand) (2011)+</t>
   </si>
 </sst>
 </file>
@@ -491,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D99F29B-853D-B144-929F-FF8F00BD9C29}">
-  <dimension ref="A1:M500"/>
+  <dimension ref="A1:L500"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -502,11 +499,13 @@
     <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="4" customWidth="1"/>
-    <col min="4" max="13" width="15.875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="1"/>
+    <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
+    <col min="6" max="12" width="15.875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -514,45 +513,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2014</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4">
         <v>1720</v>
@@ -561,326 +557,302 @@
         <v>14243</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>4140</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1078</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>5676</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>922</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>2279</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>48881</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2015</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4">
         <v>1720</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>14956</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>3689</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1597</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>10032</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>3381</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>53151</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2016</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4">
         <v>1720</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>15435</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>3829</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1921</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>17699</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>1195</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>3949</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>55478</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2017</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4">
         <v>1720</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>16212</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>3252</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1935</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>17793</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>1375</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>4480</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>53301</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2018</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4">
         <v>1720</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>15287</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>2989</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1908</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>17387</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1494</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>4313</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>49736</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2019</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4">
         <v>1720</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>15508</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>3795</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>2084</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>19500</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1867</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>4390</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47280</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2020</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4">
         <v>1720</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>13776</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>3945</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>2289</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>889</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>18156</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>1439</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>3870</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>33023</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4">
         <v>1720</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>14924</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>3092</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>2598</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>20678</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>5561</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>36522</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2014</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4">
         <v>665</v>
@@ -889,326 +861,302 @@
         <v>5456</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>1262</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1514</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>839</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>19470</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2015</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <v>665</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>5681</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1161</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>1917</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>19174</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2016</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4">
         <v>665</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>5369</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>1178</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>2233</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>717</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>883</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>21406</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2017</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4">
         <v>665</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>5880</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>1153</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>2493</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>741</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>22478</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2018</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
         <v>665</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>6002</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1443</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>1049</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>4117</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>831</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1793</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>26320</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2019</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4">
         <v>665</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1640</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>973</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>5178</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1711</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>22428</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2020</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4">
         <v>665</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>4756</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1979</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1059</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>5248</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>15737</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2021</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4">
         <v>665</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>4734</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>1821</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>1167</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>5626</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1712</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>16334</v>
       </c>
       <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4">
         <v>856</v>
@@ -1217,654 +1165,606 @@
         <v>6194</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>2218</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>1703</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>1223</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>24509</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>9135</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4">
         <v>856</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>6914</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>1622</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>781</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>1946</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1319</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>24135</v>
       </c>
       <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4">
         <v>856</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>7697</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>1607</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>1073</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>3498</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1572</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>27298</v>
       </c>
       <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4">
         <v>856</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>8166</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>1417</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>4135</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1778</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>31744</v>
       </c>
       <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" s="4">
         <v>856</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>7647</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>1367</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>1471</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>4346</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>2163</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>29655</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2019</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" s="4">
         <v>856</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>7916</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>1654</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>1469</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>5975</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>752</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>2152</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>27036</v>
       </c>
       <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2020</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" s="4">
         <v>856</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>2146</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>1565</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <v>5968</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>2091</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>18080</v>
       </c>
       <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2021</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4">
         <v>856</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>7072</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1910</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>1704</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>697</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>7536</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>2654</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>20250</v>
       </c>
       <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" s="4">
         <v>518</v>
       </c>
       <c r="D26" s="1">
-        <v>8040</v>
+        <v>8470</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>2843</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>2418</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>1238</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>25406</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>11755</v>
       </c>
       <c r="L26" s="1">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53647</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2015</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27" s="4">
         <v>518</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>8407</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>2405</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>874</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>2960</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>1506</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>22298</v>
       </c>
       <c r="L27" s="1">
-        <v>0</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13738</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2016</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28" s="4">
         <v>518</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>9043</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>2230</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>1091</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
+        <v>9565</v>
       </c>
       <c r="I28" s="1">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="K28" s="1">
-        <v>0</v>
+        <v>23189</v>
       </c>
       <c r="L28" s="1">
-        <v>0</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2017</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29" s="4">
         <v>518</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>10368</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>2372</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>1787</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>17206</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>2684</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>25384</v>
       </c>
       <c r="L29" s="1">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2018</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30" s="4">
         <v>518</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>9942</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>2186</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>1894</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>18242</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>2880</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>25020</v>
       </c>
       <c r="L30" s="1">
-        <v>0</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2019</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="4">
         <v>518</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>9960</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>2028</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>1852</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>15796</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>2944</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>23687</v>
       </c>
       <c r="L31" s="1">
-        <v>0</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37724</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2020</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C32" s="4">
         <v>518</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>7864</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>2177</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>1720</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="H32" s="1">
-        <v>0</v>
+        <v>14099</v>
       </c>
       <c r="I32" s="1">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>2809</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>15742</v>
       </c>
       <c r="L32" s="1">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38038</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2021</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33" s="4">
         <v>518</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>8132</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>1773</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
+        <v>15013</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>3605</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>17055</v>
       </c>
       <c r="L33" s="1">
-        <v>0</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2014</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34" s="4">
         <v>557</v>
@@ -1873,326 +1773,302 @@
         <v>8309</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>1711</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>1753</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>877</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>20411</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>7941</v>
       </c>
       <c r="L34" s="1">
-        <v>0</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42041</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2015</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C35" s="4">
         <v>557</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>8885</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>1453</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>631</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>1799</v>
       </c>
       <c r="I35" s="1">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1320</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>22441</v>
       </c>
       <c r="L35" s="1">
-        <v>0</v>
-      </c>
-      <c r="M35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10942</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2016</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C36" s="4">
         <v>557</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>8997</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>1372</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="H36" s="1">
-        <v>0</v>
+        <v>1944</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>1344</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>22857</v>
       </c>
       <c r="L36" s="1">
-        <v>0</v>
-      </c>
-      <c r="M36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12844</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2017</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C37" s="4">
         <v>557</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>9554</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>1262</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <v>881</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="H37" s="1">
-        <v>0</v>
+        <v>2496</v>
       </c>
       <c r="I37" s="1">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1664</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>26320</v>
       </c>
       <c r="L37" s="1">
-        <v>0</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2018</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C38" s="4">
         <v>557</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>9471</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>1528</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="H38" s="1">
-        <v>0</v>
+        <v>4137</v>
       </c>
       <c r="I38" s="1">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1779</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>26106</v>
       </c>
       <c r="L38" s="1">
-        <v>0</v>
-      </c>
-      <c r="M38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21971</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2019</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C39" s="4">
         <v>557</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>10180</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>1793</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>1848</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="H39" s="1">
-        <v>0</v>
+        <v>5808</v>
       </c>
       <c r="I39" s="1">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1881</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>23264</v>
       </c>
       <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23479</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2020</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C40" s="4">
         <v>557</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>8813</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>2443</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>1936</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="H40" s="1">
-        <v>0</v>
+        <v>6548</v>
       </c>
       <c r="I40" s="1">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="J40" s="1">
-        <v>0</v>
+        <v>1927</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>15414</v>
       </c>
       <c r="L40" s="1">
-        <v>0</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2021</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C41" s="4">
         <v>557</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>9952</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>2103</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>1893</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="H41" s="1">
-        <v>0</v>
+        <v>8346</v>
       </c>
       <c r="I41" s="1">
-        <v>0</v>
+        <v>709</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>2510</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>19259</v>
       </c>
       <c r="L41" s="1">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28047</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2014</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C42" s="4">
         <v>500</v>
@@ -2201,326 +2077,302 @@
         <v>4953</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>1390</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>1586</v>
       </c>
       <c r="H42" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>8905</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>6577</v>
       </c>
       <c r="L42" s="1">
-        <v>0</v>
-      </c>
-      <c r="M42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24842</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2015</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C43" s="4">
         <v>500</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>5190</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>1070</v>
       </c>
       <c r="F43" s="1">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="H43" s="1">
-        <v>0</v>
+        <v>1622</v>
       </c>
       <c r="I43" s="1">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>844</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>9234</v>
       </c>
       <c r="L43" s="1">
-        <v>0</v>
-      </c>
-      <c r="M43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7376</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2016</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C44" s="4">
         <v>500</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>5097</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>882</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="H44" s="1">
-        <v>0</v>
+        <v>1456</v>
       </c>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1007</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>9027</v>
       </c>
       <c r="L44" s="1">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2017</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C45" s="4">
         <v>500</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>5134</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
+        <v>601</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="H45" s="1">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="I45" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1322</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>9214</v>
       </c>
       <c r="L45" s="1">
-        <v>0</v>
-      </c>
-      <c r="M45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2018</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C46" s="4">
         <v>500</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>5584</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H46" s="1">
-        <v>0</v>
+        <v>3295</v>
       </c>
       <c r="I46" s="1">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>1649</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>9793</v>
       </c>
       <c r="L46" s="1">
-        <v>0</v>
-      </c>
-      <c r="M46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2019</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C47" s="4">
         <v>500</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>5711</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="H47" s="1">
-        <v>0</v>
+        <v>4226</v>
       </c>
       <c r="I47" s="1">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="J47" s="1">
-        <v>0</v>
+        <v>1452</v>
       </c>
       <c r="K47" s="1">
-        <v>0</v>
+        <v>8754</v>
       </c>
       <c r="L47" s="1">
-        <v>0</v>
-      </c>
-      <c r="M47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16015</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2020</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C48" s="4">
         <v>500</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>4245</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>1140</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="H48" s="1">
-        <v>0</v>
+        <v>3904</v>
       </c>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>1234</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>5852</v>
       </c>
       <c r="L48" s="1">
-        <v>0</v>
-      </c>
-      <c r="M48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13523</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2021</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C49" s="4">
         <v>500</v>
       </c>
       <c r="D49" s="1">
-        <v>0</v>
+        <v>5045</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="F49" s="1">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="H49" s="1">
-        <v>0</v>
+        <v>4656</v>
       </c>
       <c r="I49" s="1">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>1707</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>6852</v>
       </c>
       <c r="L49" s="1">
-        <v>0</v>
-      </c>
-      <c r="M49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16815</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2014</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C50" s="4">
         <v>930</v>
@@ -2529,326 +2381,302 @@
         <v>8180</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>2674</v>
       </c>
       <c r="F50" s="1">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>1218</v>
       </c>
       <c r="H50" s="1">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="I50" s="1">
-        <v>0</v>
+        <v>1253</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>26748</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>10035</v>
       </c>
       <c r="L50" s="1">
-        <v>0</v>
-      </c>
-      <c r="M50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51701</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2015</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C51" s="4">
         <v>930</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>8511</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>2313</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="G51" s="1">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="H51" s="1">
-        <v>0</v>
+        <v>1357</v>
       </c>
       <c r="I51" s="1">
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1593</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>24768</v>
       </c>
       <c r="L51" s="1">
-        <v>0</v>
-      </c>
-      <c r="M51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12459</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2016</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C52" s="4">
         <v>930</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>7972</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>2084</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>1144</v>
       </c>
       <c r="G52" s="1">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="H52" s="1">
-        <v>0</v>
+        <v>1412</v>
       </c>
       <c r="I52" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>1838</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>26060</v>
       </c>
       <c r="L52" s="1">
-        <v>0</v>
-      </c>
-      <c r="M52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12343</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2017</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C53" s="4">
         <v>930</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>8142</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>2145</v>
       </c>
       <c r="F53" s="1">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="G53" s="1">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="H53" s="1">
-        <v>0</v>
+        <v>1625</v>
       </c>
       <c r="I53" s="1">
-        <v>0</v>
+        <v>611</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
+        <v>26769</v>
       </c>
       <c r="L53" s="1">
-        <v>0</v>
-      </c>
-      <c r="M53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13042</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2018</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C54" s="4">
         <v>930</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>7963</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>2312</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>1296</v>
       </c>
       <c r="G54" s="1">
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="H54" s="1">
-        <v>0</v>
+        <v>2501</v>
       </c>
       <c r="I54" s="1">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="J54" s="1">
-        <v>0</v>
+        <v>2251</v>
       </c>
       <c r="K54" s="1">
-        <v>0</v>
+        <v>25555</v>
       </c>
       <c r="L54" s="1">
-        <v>0</v>
-      </c>
-      <c r="M54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2019</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C55" s="4">
         <v>930</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>8996</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>2341</v>
       </c>
       <c r="F55" s="1">
-        <v>0</v>
+        <v>1844</v>
       </c>
       <c r="G55" s="1">
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="H55" s="1">
-        <v>0</v>
+        <v>6988</v>
       </c>
       <c r="I55" s="1">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>2783</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>24676</v>
       </c>
       <c r="L55" s="1">
-        <v>0</v>
-      </c>
-      <c r="M55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30913</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2020</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C56" s="4">
         <v>930</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>8567</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>2711</v>
       </c>
       <c r="F56" s="1">
-        <v>0</v>
+        <v>1986</v>
       </c>
       <c r="G56" s="1">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="H56" s="1">
-        <v>0</v>
+        <v>8559</v>
       </c>
       <c r="I56" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>2615</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>18203</v>
       </c>
       <c r="L56" s="1">
-        <v>0</v>
-      </c>
-      <c r="M56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31098</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2021</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C57" s="4">
         <v>930</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>9164</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>2364</v>
       </c>
       <c r="F57" s="1">
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="G57" s="1">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="H57" s="1">
-        <v>0</v>
+        <v>10638</v>
       </c>
       <c r="I57" s="1">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="J57" s="1">
-        <v>0</v>
+        <v>3479</v>
       </c>
       <c r="K57" s="1">
-        <v>0</v>
+        <v>19713</v>
       </c>
       <c r="L57" s="1">
-        <v>0</v>
-      </c>
-      <c r="M57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36976</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2014</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C58" s="4">
         <v>1800</v>
@@ -2857,326 +2685,302 @@
         <v>13616</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>4036</v>
       </c>
       <c r="F58" s="1">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="G58" s="1">
-        <v>0</v>
+        <v>4628</v>
       </c>
       <c r="H58" s="1">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="I58" s="1">
-        <v>0</v>
+        <v>2563</v>
       </c>
       <c r="J58" s="1">
-        <v>0</v>
+        <v>31393</v>
       </c>
       <c r="K58" s="1">
-        <v>0</v>
+        <v>21915</v>
       </c>
       <c r="L58" s="1">
-        <v>0</v>
-      </c>
-      <c r="M58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80243</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2015</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C59" s="4">
         <v>1800</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>12774</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>3659</v>
       </c>
       <c r="F59" s="1">
-        <v>0</v>
+        <v>1085</v>
       </c>
       <c r="G59" s="1">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="H59" s="1">
-        <v>0</v>
+        <v>4302</v>
       </c>
       <c r="I59" s="1">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="J59" s="1">
-        <v>0</v>
+        <v>2756</v>
       </c>
       <c r="K59" s="1">
-        <v>0</v>
+        <v>27487</v>
       </c>
       <c r="L59" s="1">
-        <v>0</v>
-      </c>
-      <c r="M59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2016</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C60" s="4">
         <v>1800</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>13850</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>3440</v>
       </c>
       <c r="F60" s="1">
-        <v>0</v>
+        <v>1487</v>
       </c>
       <c r="G60" s="1">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="H60" s="1">
-        <v>0</v>
+        <v>4882</v>
       </c>
       <c r="I60" s="1">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="J60" s="1">
-        <v>0</v>
+        <v>3388</v>
       </c>
       <c r="K60" s="1">
-        <v>0</v>
+        <v>29513</v>
       </c>
       <c r="L60" s="1">
-        <v>0</v>
-      </c>
-      <c r="M60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2017</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C61" s="4">
         <v>1800</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>15064</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>3716</v>
       </c>
       <c r="F61" s="1">
-        <v>0</v>
+        <v>2119</v>
       </c>
       <c r="G61" s="1">
-        <v>0</v>
+        <v>827</v>
       </c>
       <c r="H61" s="1">
-        <v>0</v>
+        <v>6931</v>
       </c>
       <c r="I61" s="1">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="J61" s="1">
-        <v>0</v>
+        <v>4449</v>
       </c>
       <c r="K61" s="1">
-        <v>0</v>
+        <v>32835</v>
       </c>
       <c r="L61" s="1">
-        <v>0</v>
-      </c>
-      <c r="M61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36838</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2018</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C62" s="4">
         <v>1800</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
+        <v>14776</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="F62" s="1">
-        <v>0</v>
+        <v>2172</v>
       </c>
       <c r="G62" s="1">
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="H62" s="1">
-        <v>0</v>
+        <v>7115</v>
       </c>
       <c r="I62" s="1">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="J62" s="1">
-        <v>0</v>
+        <v>4502</v>
       </c>
       <c r="K62" s="1">
-        <v>0</v>
+        <v>31196</v>
       </c>
       <c r="L62" s="1">
-        <v>0</v>
-      </c>
-      <c r="M62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41457</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2019</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C63" s="4">
         <v>1800</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>13998</v>
       </c>
       <c r="E63" s="1">
-        <v>0</v>
+        <v>4146</v>
       </c>
       <c r="F63" s="1">
-        <v>0</v>
+        <v>1981</v>
       </c>
       <c r="G63" s="1">
-        <v>0</v>
+        <v>1071</v>
       </c>
       <c r="H63" s="1">
-        <v>0</v>
+        <v>6973</v>
       </c>
       <c r="I63" s="1">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="J63" s="1">
-        <v>0</v>
+        <v>4345</v>
       </c>
       <c r="K63" s="1">
-        <v>0</v>
+        <v>25642</v>
       </c>
       <c r="L63" s="1">
-        <v>0</v>
-      </c>
-      <c r="M63" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2020</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C64" s="4">
         <v>1800</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>12480</v>
       </c>
       <c r="E64" s="1">
-        <v>0</v>
+        <v>5036</v>
       </c>
       <c r="F64" s="1">
-        <v>0</v>
+        <v>2162</v>
       </c>
       <c r="G64" s="1">
-        <v>0</v>
+        <v>1177</v>
       </c>
       <c r="H64" s="1">
-        <v>0</v>
+        <v>7138</v>
       </c>
       <c r="I64" s="1">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>4145</v>
       </c>
       <c r="K64" s="1">
-        <v>0</v>
+        <v>17621</v>
       </c>
       <c r="L64" s="1">
-        <v>0</v>
-      </c>
-      <c r="M64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39990</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2021</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C65" s="4">
         <v>1800</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>13779</v>
       </c>
       <c r="E65" s="1">
-        <v>0</v>
+        <v>4201</v>
       </c>
       <c r="F65" s="1">
-        <v>0</v>
+        <v>2261</v>
       </c>
       <c r="G65" s="1">
-        <v>0</v>
+        <v>1270</v>
       </c>
       <c r="H65" s="1">
-        <v>0</v>
+        <v>8458</v>
       </c>
       <c r="I65" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <v>5303</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>19212</v>
       </c>
       <c r="L65" s="1">
-        <v>0</v>
-      </c>
-      <c r="M65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46075</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2014</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C66" s="4">
         <v>774</v>
@@ -3185,326 +2989,302 @@
         <v>5755</v>
       </c>
       <c r="E66" s="1">
-        <v>0</v>
+        <v>1632</v>
       </c>
       <c r="F66" s="1">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="G66" s="1">
-        <v>0</v>
+        <v>1026</v>
       </c>
       <c r="H66" s="1">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="I66" s="1">
-        <v>0</v>
+        <v>972</v>
       </c>
       <c r="J66" s="1">
-        <v>0</v>
+        <v>18440</v>
       </c>
       <c r="K66" s="1">
-        <v>0</v>
+        <v>7607</v>
       </c>
       <c r="L66" s="1">
-        <v>0</v>
-      </c>
-      <c r="M66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36082</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2015</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C67" s="4">
         <v>774</v>
       </c>
       <c r="D67" s="1">
-        <v>0</v>
+        <v>6220</v>
       </c>
       <c r="E67" s="1">
-        <v>0</v>
+        <v>1722</v>
       </c>
       <c r="F67" s="1">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="G67" s="1">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="H67" s="1">
-        <v>0</v>
+        <v>1329</v>
       </c>
       <c r="I67" s="1">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="J67" s="1">
-        <v>0</v>
+        <v>1173</v>
       </c>
       <c r="K67" s="1">
-        <v>0</v>
+        <v>19539</v>
       </c>
       <c r="L67" s="1">
-        <v>0</v>
-      </c>
-      <c r="M67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10611</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2016</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C68" s="4">
         <v>774</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>6280</v>
       </c>
       <c r="E68" s="1">
-        <v>0</v>
+        <v>1655</v>
       </c>
       <c r="F68" s="1">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="G68" s="1">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H68" s="1">
-        <v>0</v>
+        <v>1851</v>
       </c>
       <c r="I68" s="1">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="J68" s="1">
-        <v>0</v>
+        <v>1419</v>
       </c>
       <c r="K68" s="1">
-        <v>0</v>
+        <v>19883</v>
       </c>
       <c r="L68" s="1">
-        <v>0</v>
-      </c>
-      <c r="M68" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12957</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2017</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C69" s="4">
         <v>774</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>6901</v>
       </c>
       <c r="E69" s="1">
-        <v>0</v>
+        <v>1646</v>
       </c>
       <c r="F69" s="1">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="G69" s="1">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="H69" s="1">
-        <v>0</v>
+        <v>2154</v>
       </c>
       <c r="I69" s="1">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="J69" s="1">
-        <v>0</v>
+        <v>1686</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>20998</v>
       </c>
       <c r="L69" s="1">
-        <v>0</v>
-      </c>
-      <c r="M69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2018</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C70" s="4">
         <v>774</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>6963</v>
       </c>
       <c r="E70" s="1">
-        <v>0</v>
+        <v>1744</v>
       </c>
       <c r="F70" s="1">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="G70" s="1">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="H70" s="1">
-        <v>0</v>
+        <v>3310</v>
       </c>
       <c r="I70" s="1">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="J70" s="1">
-        <v>0</v>
+        <v>2113</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>20585</v>
       </c>
       <c r="L70" s="1">
-        <v>0</v>
-      </c>
-      <c r="M70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2019</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C71" s="4">
         <v>774</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>7361</v>
       </c>
       <c r="E71" s="1">
-        <v>0</v>
+        <v>1484</v>
       </c>
       <c r="F71" s="1">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="G71" s="1">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="H71" s="1">
-        <v>0</v>
+        <v>3292</v>
       </c>
       <c r="I71" s="1">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <v>2073</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>18749</v>
       </c>
       <c r="L71" s="1">
-        <v>0</v>
-      </c>
-      <c r="M71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19749</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2020</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C72" s="4">
         <v>774</v>
       </c>
       <c r="D72" s="1">
-        <v>0</v>
+        <v>6172</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
+        <v>1434</v>
       </c>
       <c r="F72" s="1">
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="G72" s="1">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="H72" s="1">
-        <v>0</v>
+        <v>3530</v>
       </c>
       <c r="I72" s="1">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>1751</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>14439</v>
       </c>
       <c r="L72" s="1">
-        <v>0</v>
-      </c>
-      <c r="M72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18457</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2021</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C73" s="4">
         <v>774</v>
       </c>
       <c r="D73" s="1">
-        <v>0</v>
+        <v>6463</v>
       </c>
       <c r="E73" s="1">
-        <v>0</v>
+        <v>1168</v>
       </c>
       <c r="F73" s="1">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="G73" s="1">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="H73" s="1">
-        <v>0</v>
+        <v>4251</v>
       </c>
       <c r="I73" s="1">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>2353</v>
       </c>
       <c r="K73" s="1">
-        <v>0</v>
+        <v>15324</v>
       </c>
       <c r="L73" s="1">
-        <v>0</v>
-      </c>
-      <c r="M73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2014</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C74" s="4">
         <v>629</v>
@@ -3513,326 +3293,302 @@
         <v>6714</v>
       </c>
       <c r="E74" s="1">
-        <v>0</v>
+        <v>1429</v>
       </c>
       <c r="F74" s="1">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="G74" s="1">
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="H74" s="1">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I74" s="1">
-        <v>0</v>
+        <v>979</v>
       </c>
       <c r="J74" s="1">
-        <v>0</v>
+        <v>15248</v>
       </c>
       <c r="K74" s="1">
-        <v>0</v>
+        <v>6536</v>
       </c>
       <c r="L74" s="1">
-        <v>0</v>
-      </c>
-      <c r="M74" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32924</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2015</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C75" s="4">
         <v>629</v>
       </c>
       <c r="D75" s="1">
-        <v>0</v>
+        <v>7081</v>
       </c>
       <c r="E75" s="1">
-        <v>0</v>
+        <v>1191</v>
       </c>
       <c r="F75" s="1">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="G75" s="1">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="H75" s="1">
-        <v>0</v>
+        <v>1445</v>
       </c>
       <c r="I75" s="1">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="J75" s="1">
-        <v>0</v>
+        <v>1105</v>
       </c>
       <c r="K75" s="1">
-        <v>0</v>
+        <v>15124</v>
       </c>
       <c r="L75" s="1">
-        <v>0</v>
-      </c>
-      <c r="M75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9538</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2016</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C76" s="4">
         <v>629</v>
       </c>
       <c r="D76" s="1">
-        <v>0</v>
+        <v>8503</v>
       </c>
       <c r="E76" s="1">
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="F76" s="1">
-        <v>0</v>
+        <v>991</v>
       </c>
       <c r="G76" s="1">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="H76" s="1">
-        <v>0</v>
+        <v>2969</v>
       </c>
       <c r="I76" s="1">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J76" s="1">
-        <v>0</v>
+        <v>1330</v>
       </c>
       <c r="K76" s="1">
-        <v>0</v>
+        <v>16779</v>
       </c>
       <c r="L76" s="1">
-        <v>0</v>
-      </c>
-      <c r="M76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14661</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2017</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C77" s="4">
         <v>629</v>
       </c>
       <c r="D77" s="1">
-        <v>0</v>
+        <v>10181</v>
       </c>
       <c r="E77" s="1">
-        <v>0</v>
+        <v>1143</v>
       </c>
       <c r="F77" s="1">
-        <v>0</v>
+        <v>1718</v>
       </c>
       <c r="G77" s="1">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="H77" s="1">
-        <v>0</v>
+        <v>5213</v>
       </c>
       <c r="I77" s="1">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="J77" s="1">
-        <v>0</v>
+        <v>2021</v>
       </c>
       <c r="K77" s="1">
-        <v>0</v>
+        <v>19164</v>
       </c>
       <c r="L77" s="1">
-        <v>0</v>
-      </c>
-      <c r="M77" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21415</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2018</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C78" s="4">
         <v>629</v>
       </c>
       <c r="D78" s="1">
-        <v>0</v>
+        <v>9622</v>
       </c>
       <c r="E78" s="1">
-        <v>0</v>
+        <v>1346</v>
       </c>
       <c r="F78" s="1">
-        <v>0</v>
+        <v>1816</v>
       </c>
       <c r="G78" s="1">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="H78" s="1">
-        <v>0</v>
+        <v>5122</v>
       </c>
       <c r="I78" s="1">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="J78" s="1">
-        <v>0</v>
+        <v>1923</v>
       </c>
       <c r="K78" s="1">
-        <v>0</v>
+        <v>18531</v>
       </c>
       <c r="L78" s="1">
-        <v>0</v>
-      </c>
-      <c r="M78" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24898</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2019</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C79" s="4">
         <v>629</v>
       </c>
       <c r="D79" s="1">
-        <v>0</v>
+        <v>9142</v>
       </c>
       <c r="E79" s="1">
-        <v>0</v>
+        <v>1459</v>
       </c>
       <c r="F79" s="1">
-        <v>0</v>
+        <v>1714</v>
       </c>
       <c r="G79" s="1">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="H79" s="1">
-        <v>0</v>
+        <v>5130</v>
       </c>
       <c r="I79" s="1">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="J79" s="1">
-        <v>0</v>
+        <v>1974</v>
       </c>
       <c r="K79" s="1">
-        <v>0</v>
+        <v>18155</v>
       </c>
       <c r="L79" s="1">
-        <v>0</v>
-      </c>
-      <c r="M79" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2020</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C80" s="4">
         <v>629</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>8006</v>
       </c>
       <c r="E80" s="1">
-        <v>0</v>
+        <v>1487</v>
       </c>
       <c r="F80" s="1">
-        <v>0</v>
+        <v>1695</v>
       </c>
       <c r="G80" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="H80" s="1">
-        <v>0</v>
+        <v>5425</v>
       </c>
       <c r="I80" s="1">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="J80" s="1">
-        <v>0</v>
+        <v>1733</v>
       </c>
       <c r="K80" s="1">
-        <v>0</v>
+        <v>12340</v>
       </c>
       <c r="L80" s="1">
-        <v>0</v>
-      </c>
-      <c r="M80" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24679</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2021</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C81" s="4">
         <v>629</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>9396</v>
       </c>
       <c r="E81" s="1">
-        <v>0</v>
+        <v>1387</v>
       </c>
       <c r="F81" s="1">
-        <v>0</v>
+        <v>1590</v>
       </c>
       <c r="G81" s="1">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="H81" s="1">
-        <v>0</v>
+        <v>5942</v>
       </c>
       <c r="I81" s="1">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="J81" s="1">
-        <v>0</v>
+        <v>2121</v>
       </c>
       <c r="K81" s="1">
-        <v>0</v>
+        <v>13163</v>
       </c>
       <c r="L81" s="1">
-        <v>0</v>
-      </c>
-      <c r="M81" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24925</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2014</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C82" s="4">
         <v>515</v>
@@ -3841,326 +3597,302 @@
         <v>3484</v>
       </c>
       <c r="E82" s="1">
-        <v>0</v>
+        <v>2726</v>
       </c>
       <c r="F82" s="1">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="G82" s="1">
-        <v>0</v>
+        <v>868</v>
       </c>
       <c r="H82" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I82" s="1">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="J82" s="1">
-        <v>0</v>
+        <v>6126</v>
       </c>
       <c r="K82" s="1">
-        <v>0</v>
+        <v>4540</v>
       </c>
       <c r="L82" s="1">
-        <v>0</v>
-      </c>
-      <c r="M82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18975</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>2015</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C83" s="4">
         <v>515</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>3905</v>
       </c>
       <c r="E83" s="1">
-        <v>0</v>
+        <v>2344</v>
       </c>
       <c r="F83" s="1">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="G83" s="1">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="H83" s="1">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="I83" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J83" s="1">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="K83" s="1">
-        <v>0</v>
+        <v>6550</v>
       </c>
       <c r="L83" s="1">
-        <v>0</v>
-      </c>
-      <c r="M83" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2016</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C84" s="4">
         <v>515</v>
       </c>
       <c r="D84" s="1">
-        <v>0</v>
+        <v>3940</v>
       </c>
       <c r="E84" s="1">
-        <v>0</v>
+        <v>2010</v>
       </c>
       <c r="F84" s="1">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="G84" s="1">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="H84" s="1">
-        <v>0</v>
+        <v>871</v>
       </c>
       <c r="I84" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J84" s="1">
-        <v>0</v>
+        <v>1028</v>
       </c>
       <c r="K84" s="1">
-        <v>0</v>
+        <v>6969</v>
       </c>
       <c r="L84" s="1">
-        <v>0</v>
-      </c>
-      <c r="M84" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7720</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2017</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C85" s="4">
         <v>515</v>
       </c>
       <c r="D85" s="1">
-        <v>0</v>
+        <v>4252</v>
       </c>
       <c r="E85" s="1">
-        <v>0</v>
+        <v>1806</v>
       </c>
       <c r="F85" s="1">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="G85" s="1">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="H85" s="1">
-        <v>0</v>
+        <v>1289</v>
       </c>
       <c r="I85" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J85" s="1">
-        <v>0</v>
+        <v>1308</v>
       </c>
       <c r="K85" s="1">
-        <v>0</v>
+        <v>7754</v>
       </c>
       <c r="L85" s="1">
-        <v>0</v>
-      </c>
-      <c r="M85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9569</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2018</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C86" s="4">
         <v>515</v>
       </c>
       <c r="D86" s="1">
-        <v>0</v>
+        <v>4186</v>
       </c>
       <c r="E86" s="1">
-        <v>0</v>
+        <v>1991</v>
       </c>
       <c r="F86" s="1">
-        <v>0</v>
+        <v>781</v>
       </c>
       <c r="G86" s="1">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="H86" s="1">
-        <v>0</v>
+        <v>1837</v>
       </c>
       <c r="I86" s="1">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J86" s="1">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="K86" s="1">
-        <v>0</v>
+        <v>7971</v>
       </c>
       <c r="L86" s="1">
-        <v>0</v>
-      </c>
-      <c r="M86" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11884</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>2019</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C87" s="4">
         <v>515</v>
       </c>
       <c r="D87" s="1">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="E87" s="1">
-        <v>0</v>
+        <v>2005</v>
       </c>
       <c r="F87" s="1">
-        <v>0</v>
+        <v>902</v>
       </c>
       <c r="G87" s="1">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="H87" s="1">
-        <v>0</v>
+        <v>2457</v>
       </c>
       <c r="I87" s="1">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J87" s="1">
-        <v>0</v>
+        <v>1397</v>
       </c>
       <c r="K87" s="1">
-        <v>0</v>
+        <v>7106</v>
       </c>
       <c r="L87" s="1">
-        <v>0</v>
-      </c>
-      <c r="M87" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14012</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>2020</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C88" s="4">
         <v>515</v>
       </c>
       <c r="D88" s="1">
-        <v>0</v>
+        <v>3670</v>
       </c>
       <c r="E88" s="1">
-        <v>0</v>
+        <v>2192</v>
       </c>
       <c r="F88" s="1">
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="G88" s="1">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="H88" s="1">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="I88" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J88" s="1">
-        <v>0</v>
+        <v>1185</v>
       </c>
       <c r="K88" s="1">
-        <v>0</v>
+        <v>5301</v>
       </c>
       <c r="L88" s="1">
-        <v>0</v>
-      </c>
-      <c r="M88" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>2021</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C89" s="4">
         <v>515</v>
       </c>
       <c r="D89" s="1">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="E89" s="1">
-        <v>0</v>
+        <v>1602</v>
       </c>
       <c r="F89" s="1">
-        <v>0</v>
+        <v>861</v>
       </c>
       <c r="G89" s="1">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="H89" s="1">
-        <v>0</v>
+        <v>5934</v>
       </c>
       <c r="I89" s="1">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="J89" s="1">
-        <v>0</v>
+        <v>1667</v>
       </c>
       <c r="K89" s="1">
-        <v>0</v>
+        <v>6176</v>
       </c>
       <c r="L89" s="1">
-        <v>0</v>
-      </c>
-      <c r="M89" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>2014</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C90" s="4">
         <v>1850</v>
@@ -4169,326 +3901,302 @@
         <v>13732</v>
       </c>
       <c r="E90" s="1">
-        <v>0</v>
+        <v>3705</v>
       </c>
       <c r="F90" s="1">
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="G90" s="1">
-        <v>0</v>
+        <v>3950</v>
       </c>
       <c r="H90" s="1">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="I90" s="1">
-        <v>0</v>
+        <v>2453</v>
       </c>
       <c r="J90" s="1">
-        <v>0</v>
+        <v>49890</v>
       </c>
       <c r="K90" s="1">
-        <v>0</v>
+        <v>22913</v>
       </c>
       <c r="L90" s="1">
-        <v>0</v>
-      </c>
-      <c r="M90" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99740</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2015</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C91" s="4">
         <v>1850</v>
       </c>
       <c r="D91" s="1">
-        <v>0</v>
+        <v>15109</v>
       </c>
       <c r="E91" s="1">
-        <v>0</v>
+        <v>2739</v>
       </c>
       <c r="F91" s="1">
-        <v>0</v>
+        <v>1583</v>
       </c>
       <c r="G91" s="1">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="H91" s="1">
-        <v>0</v>
+        <v>5801</v>
       </c>
       <c r="I91" s="1">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="J91" s="1">
-        <v>0</v>
+        <v>2793</v>
       </c>
       <c r="K91" s="1">
-        <v>0</v>
+        <v>51425</v>
       </c>
       <c r="L91" s="1">
-        <v>0</v>
-      </c>
-      <c r="M91" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29559</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>2016</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C92" s="4">
         <v>1850</v>
       </c>
       <c r="D92" s="1">
-        <v>0</v>
+        <v>15256</v>
       </c>
       <c r="E92" s="1">
-        <v>0</v>
+        <v>3212</v>
       </c>
       <c r="F92" s="1">
-        <v>0</v>
+        <v>2171</v>
       </c>
       <c r="G92" s="1">
-        <v>0</v>
+        <v>1315</v>
       </c>
       <c r="H92" s="1">
-        <v>0</v>
+        <v>8195</v>
       </c>
       <c r="I92" s="1">
-        <v>0</v>
+        <v>1185</v>
       </c>
       <c r="J92" s="1">
-        <v>0</v>
+        <v>2944</v>
       </c>
       <c r="K92" s="1">
-        <v>0</v>
+        <v>52577</v>
       </c>
       <c r="L92" s="1">
-        <v>0</v>
-      </c>
-      <c r="M92" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33803</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2017</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C93" s="4">
         <v>1850</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>15711</v>
       </c>
       <c r="E93" s="1">
-        <v>0</v>
+        <v>3309</v>
       </c>
       <c r="F93" s="1">
-        <v>0</v>
+        <v>2905</v>
       </c>
       <c r="G93" s="1">
-        <v>0</v>
+        <v>1952</v>
       </c>
       <c r="H93" s="1">
-        <v>0</v>
+        <v>9981</v>
       </c>
       <c r="I93" s="1">
-        <v>0</v>
+        <v>1506</v>
       </c>
       <c r="J93" s="1">
-        <v>0</v>
+        <v>3741</v>
       </c>
       <c r="K93" s="1">
-        <v>0</v>
+        <v>53739</v>
       </c>
       <c r="L93" s="1">
-        <v>0</v>
-      </c>
-      <c r="M93" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2018</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C94" s="4">
         <v>1850</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>16227</v>
       </c>
       <c r="E94" s="1">
-        <v>0</v>
+        <v>4201</v>
       </c>
       <c r="F94" s="1">
-        <v>0</v>
+        <v>3470</v>
       </c>
       <c r="G94" s="1">
-        <v>0</v>
+        <v>2058</v>
       </c>
       <c r="H94" s="1">
-        <v>0</v>
+        <v>13333</v>
       </c>
       <c r="I94" s="1">
-        <v>0</v>
+        <v>1802</v>
       </c>
       <c r="J94" s="1">
-        <v>0</v>
+        <v>4283</v>
       </c>
       <c r="K94" s="1">
-        <v>0</v>
+        <v>55981</v>
       </c>
       <c r="L94" s="1">
-        <v>0</v>
-      </c>
-      <c r="M94" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57095</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2019</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C95" s="4">
         <v>1850</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>17816</v>
       </c>
       <c r="E95" s="1">
-        <v>0</v>
+        <v>6146</v>
       </c>
       <c r="F95" s="1">
-        <v>0</v>
+        <v>3757</v>
       </c>
       <c r="G95" s="1">
-        <v>0</v>
+        <v>1470</v>
       </c>
       <c r="H95" s="1">
-        <v>0</v>
+        <v>15381</v>
       </c>
       <c r="I95" s="1">
-        <v>0</v>
+        <v>1562</v>
       </c>
       <c r="J95" s="1">
-        <v>0</v>
+        <v>5084</v>
       </c>
       <c r="K95" s="1">
-        <v>0</v>
+        <v>51609</v>
       </c>
       <c r="L95" s="1">
-        <v>0</v>
-      </c>
-      <c r="M95" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2020</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C96" s="4">
         <v>1850</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>14150</v>
       </c>
       <c r="E96" s="1">
-        <v>0</v>
+        <v>7302</v>
       </c>
       <c r="F96" s="1">
-        <v>0</v>
+        <v>3468</v>
       </c>
       <c r="G96" s="1">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="H96" s="1">
-        <v>0</v>
+        <v>16051</v>
       </c>
       <c r="I96" s="1">
-        <v>0</v>
+        <v>1281</v>
       </c>
       <c r="J96" s="1">
-        <v>0</v>
+        <v>4708</v>
       </c>
       <c r="K96" s="1">
-        <v>0</v>
+        <v>35451</v>
       </c>
       <c r="L96" s="1">
-        <v>0</v>
-      </c>
-      <c r="M96" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64932</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2021</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C97" s="4">
         <v>1850</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>15369</v>
       </c>
       <c r="E97" s="1">
-        <v>0</v>
+        <v>5630</v>
       </c>
       <c r="F97" s="1">
-        <v>0</v>
+        <v>3543</v>
       </c>
       <c r="G97" s="1">
-        <v>0</v>
+        <v>1318</v>
       </c>
       <c r="H97" s="1">
-        <v>0</v>
+        <v>18167</v>
       </c>
       <c r="I97" s="1">
-        <v>0</v>
+        <v>1375</v>
       </c>
       <c r="J97" s="1">
-        <v>0</v>
+        <v>6563</v>
       </c>
       <c r="K97" s="1">
-        <v>0</v>
+        <v>41402</v>
       </c>
       <c r="L97" s="1">
-        <v>0</v>
-      </c>
-      <c r="M97" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73486</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2014</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C98" s="4">
         <v>637</v>
@@ -4497,326 +4205,302 @@
         <v>4679</v>
       </c>
       <c r="E98" s="1">
-        <v>0</v>
+        <v>978</v>
       </c>
       <c r="F98" s="1">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="G98" s="1">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="H98" s="1">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="I98" s="1">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="J98" s="1">
-        <v>0</v>
+        <v>16454</v>
       </c>
       <c r="K98" s="1">
-        <v>0</v>
+        <v>5101</v>
       </c>
       <c r="L98" s="1">
-        <v>0</v>
-      </c>
-      <c r="M98" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29247</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2015</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C99" s="4">
         <v>637</v>
       </c>
       <c r="D99" s="1">
-        <v>0</v>
+        <v>4480</v>
       </c>
       <c r="E99" s="1">
-        <v>0</v>
+        <v>918</v>
       </c>
       <c r="F99" s="1">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="G99" s="1">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="H99" s="1">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="I99" s="1">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="J99" s="1">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="K99" s="1">
-        <v>0</v>
+        <v>16047</v>
       </c>
       <c r="L99" s="1">
-        <v>0</v>
-      </c>
-      <c r="M99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2016</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C100" s="4">
         <v>637</v>
       </c>
       <c r="D100" s="1">
-        <v>0</v>
+        <v>4427</v>
       </c>
       <c r="E100" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="F100" s="1">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="G100" s="1">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="H100" s="1">
-        <v>0</v>
+        <v>1013</v>
       </c>
       <c r="I100" s="1">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="J100" s="1">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="K100" s="1">
-        <v>0</v>
+        <v>16363</v>
       </c>
       <c r="L100" s="1">
-        <v>0</v>
-      </c>
-      <c r="M100" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6839</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2017</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C101" s="4">
         <v>637</v>
       </c>
       <c r="D101" s="1">
-        <v>0</v>
+        <v>4474</v>
       </c>
       <c r="E101" s="1">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="F101" s="1">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="G101" s="1">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="H101" s="1">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="I101" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="J101" s="1">
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="K101" s="1">
-        <v>0</v>
+        <v>16866</v>
       </c>
       <c r="L101" s="1">
-        <v>0</v>
-      </c>
-      <c r="M101" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8533</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2018</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C102" s="4">
         <v>637</v>
       </c>
       <c r="D102" s="1">
-        <v>0</v>
+        <v>4536</v>
       </c>
       <c r="E102" s="1">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="F102" s="1">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="G102" s="1">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="H102" s="1">
-        <v>0</v>
+        <v>1483</v>
       </c>
       <c r="I102" s="1">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J102" s="1">
-        <v>0</v>
+        <v>1186</v>
       </c>
       <c r="K102" s="1">
-        <v>0</v>
+        <v>16481</v>
       </c>
       <c r="L102" s="1">
-        <v>0</v>
-      </c>
-      <c r="M102" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9829</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2019</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C103" s="4">
         <v>637</v>
       </c>
       <c r="D103" s="1">
-        <v>0</v>
+        <v>4877</v>
       </c>
       <c r="E103" s="1">
-        <v>0</v>
+        <v>1276</v>
       </c>
       <c r="F103" s="1">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="G103" s="1">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="H103" s="1">
-        <v>0</v>
+        <v>3229</v>
       </c>
       <c r="I103" s="1">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="J103" s="1">
-        <v>0</v>
+        <v>1312</v>
       </c>
       <c r="K103" s="1">
-        <v>0</v>
+        <v>14937</v>
       </c>
       <c r="L103" s="1">
-        <v>0</v>
-      </c>
-      <c r="M103" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14341</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2020</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C104" s="4">
         <v>637</v>
       </c>
       <c r="D104" s="1">
-        <v>0</v>
+        <v>4405</v>
       </c>
       <c r="E104" s="1">
-        <v>0</v>
+        <v>1612</v>
       </c>
       <c r="F104" s="1">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="G104" s="1">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="H104" s="1">
-        <v>0</v>
+        <v>3175</v>
       </c>
       <c r="I104" s="1">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="J104" s="1">
-        <v>0</v>
+        <v>1382</v>
       </c>
       <c r="K104" s="1">
-        <v>0</v>
+        <v>10909</v>
       </c>
       <c r="L104" s="1">
-        <v>0</v>
-      </c>
-      <c r="M104" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14176</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2021</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C105" s="4">
         <v>637</v>
       </c>
       <c r="D105" s="1">
-        <v>0</v>
+        <v>5047</v>
       </c>
       <c r="E105" s="1">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="F105" s="1">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="G105" s="1">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="H105" s="1">
-        <v>0</v>
+        <v>4947</v>
       </c>
       <c r="I105" s="1">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="J105" s="1">
-        <v>0</v>
+        <v>1907</v>
       </c>
       <c r="K105" s="1">
-        <v>0</v>
+        <v>11585</v>
       </c>
       <c r="L105" s="1">
-        <v>0</v>
-      </c>
-      <c r="M105" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20977</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2014</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C106" s="4">
         <v>2700</v>
@@ -4825,326 +4509,302 @@
         <v>29860</v>
       </c>
       <c r="E106" s="1">
-        <v>0</v>
+        <v>6415</v>
       </c>
       <c r="F106" s="1">
-        <v>0</v>
+        <v>1261</v>
       </c>
       <c r="G106" s="1">
-        <v>0</v>
+        <v>9176</v>
       </c>
       <c r="H106" s="1">
-        <v>0</v>
+        <v>3535</v>
       </c>
       <c r="I106" s="1">
-        <v>0</v>
+        <v>4930</v>
       </c>
       <c r="J106" s="1">
-        <v>0</v>
+        <v>100982</v>
       </c>
       <c r="K106" s="1">
-        <v>0</v>
+        <v>41136</v>
       </c>
       <c r="L106" s="1">
-        <v>0</v>
-      </c>
-      <c r="M106" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>200280</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2015</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C107" s="4">
         <v>2700</v>
       </c>
       <c r="D107" s="1">
-        <v>0</v>
+        <v>34239</v>
       </c>
       <c r="E107" s="1">
-        <v>0</v>
+        <v>4894</v>
       </c>
       <c r="F107" s="1">
-        <v>0</v>
+        <v>3848</v>
       </c>
       <c r="G107" s="1">
-        <v>0</v>
+        <v>1534</v>
       </c>
       <c r="H107" s="1">
-        <v>0</v>
+        <v>13470</v>
       </c>
       <c r="I107" s="1">
-        <v>0</v>
+        <v>3526</v>
       </c>
       <c r="J107" s="1">
-        <v>0</v>
+        <v>5821</v>
       </c>
       <c r="K107" s="1">
-        <v>0</v>
+        <v>105739</v>
       </c>
       <c r="L107" s="1">
-        <v>0</v>
-      </c>
-      <c r="M107" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51682</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2016</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C108" s="4">
         <v>2700</v>
       </c>
       <c r="D108" s="1">
-        <v>0</v>
+        <v>37592</v>
       </c>
       <c r="E108" s="1">
-        <v>0</v>
+        <v>4184</v>
       </c>
       <c r="F108" s="1">
-        <v>0</v>
+        <v>5215</v>
       </c>
       <c r="G108" s="1">
-        <v>0</v>
+        <v>1727</v>
       </c>
       <c r="H108" s="1">
-        <v>0</v>
+        <v>24438</v>
       </c>
       <c r="I108" s="1">
-        <v>0</v>
+        <v>4699</v>
       </c>
       <c r="J108" s="1">
-        <v>0</v>
+        <v>6823</v>
       </c>
       <c r="K108" s="1">
-        <v>0</v>
+        <v>115659</v>
       </c>
       <c r="L108" s="1">
-        <v>0</v>
-      </c>
-      <c r="M108" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2017</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C109" s="4">
         <v>2700</v>
       </c>
       <c r="D109" s="1">
-        <v>0</v>
+        <v>40695</v>
       </c>
       <c r="E109" s="1">
-        <v>0</v>
+        <v>4801</v>
       </c>
       <c r="F109" s="1">
-        <v>0</v>
+        <v>7732</v>
       </c>
       <c r="G109" s="1">
-        <v>0</v>
+        <v>2864</v>
       </c>
       <c r="H109" s="1">
-        <v>0</v>
+        <v>50178</v>
       </c>
       <c r="I109" s="1">
-        <v>0</v>
+        <v>6946</v>
       </c>
       <c r="J109" s="1">
-        <v>0</v>
+        <v>9473</v>
       </c>
       <c r="K109" s="1">
-        <v>0</v>
+        <v>122870</v>
       </c>
       <c r="L109" s="1">
-        <v>0</v>
-      </c>
-      <c r="M109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2018</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C110" s="4">
         <v>2700</v>
       </c>
       <c r="D110" s="1">
-        <v>0</v>
+        <v>35195</v>
       </c>
       <c r="E110" s="1">
-        <v>0</v>
+        <v>5431</v>
       </c>
       <c r="F110" s="1">
-        <v>0</v>
+        <v>8161</v>
       </c>
       <c r="G110" s="1">
-        <v>0</v>
+        <v>3845</v>
       </c>
       <c r="H110" s="1">
-        <v>0</v>
+        <v>43208</v>
       </c>
       <c r="I110" s="1">
-        <v>0</v>
+        <v>7606</v>
       </c>
       <c r="J110" s="1">
-        <v>0</v>
+        <v>9535</v>
       </c>
       <c r="K110" s="1">
-        <v>0</v>
+        <v>122460</v>
       </c>
       <c r="L110" s="1">
-        <v>0</v>
-      </c>
-      <c r="M110" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98241</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2019</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C111" s="4">
         <v>2700</v>
       </c>
       <c r="D111" s="1">
-        <v>0</v>
+        <v>32419</v>
       </c>
       <c r="E111" s="1">
-        <v>0</v>
+        <v>6349</v>
       </c>
       <c r="F111" s="1">
-        <v>0</v>
+        <v>6701</v>
       </c>
       <c r="G111" s="1">
-        <v>0</v>
+        <v>3654</v>
       </c>
       <c r="H111" s="1">
-        <v>0</v>
+        <v>32013</v>
       </c>
       <c r="I111" s="1">
-        <v>0</v>
+        <v>6815</v>
       </c>
       <c r="J111" s="1">
-        <v>0</v>
+        <v>8828</v>
       </c>
       <c r="K111" s="1">
-        <v>0</v>
+        <v>114962</v>
       </c>
       <c r="L111" s="1">
-        <v>0</v>
-      </c>
-      <c r="M111" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88469</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2020</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C112" s="4">
         <v>2700</v>
       </c>
       <c r="D112" s="1">
-        <v>0</v>
+        <v>29083</v>
       </c>
       <c r="E112" s="1">
-        <v>0</v>
+        <v>8573</v>
       </c>
       <c r="F112" s="1">
-        <v>0</v>
+        <v>8010</v>
       </c>
       <c r="G112" s="1">
-        <v>0</v>
+        <v>3546</v>
       </c>
       <c r="H112" s="1">
-        <v>0</v>
+        <v>34467</v>
       </c>
       <c r="I112" s="1">
-        <v>0</v>
+        <v>4368</v>
       </c>
       <c r="J112" s="1">
-        <v>0</v>
+        <v>8510</v>
       </c>
       <c r="K112" s="1">
-        <v>0</v>
+        <v>78810</v>
       </c>
       <c r="L112" s="1">
-        <v>0</v>
-      </c>
-      <c r="M112" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98057</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2021</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C113" s="4">
         <v>2700</v>
       </c>
       <c r="D113" s="1">
-        <v>0</v>
+        <v>32922</v>
       </c>
       <c r="E113" s="1">
-        <v>0</v>
+        <v>7067</v>
       </c>
       <c r="F113" s="1">
-        <v>0</v>
+        <v>8932</v>
       </c>
       <c r="G113" s="1">
-        <v>0</v>
+        <v>4130</v>
       </c>
       <c r="H113" s="1">
-        <v>0</v>
+        <v>51664</v>
       </c>
       <c r="I113" s="1">
-        <v>0</v>
+        <v>5364</v>
       </c>
       <c r="J113" s="1">
-        <v>0</v>
+        <v>11211</v>
       </c>
       <c r="K113" s="1">
-        <v>0</v>
+        <v>96627</v>
       </c>
       <c r="L113" s="1">
-        <v>0</v>
-      </c>
-      <c r="M113" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133629</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2014</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C114" s="4">
         <v>576.70000000000005</v>
@@ -5153,326 +4813,302 @@
         <v>6714</v>
       </c>
       <c r="E114" s="1">
-        <v>0</v>
+        <v>1762</v>
       </c>
       <c r="F114" s="1">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G114" s="1">
-        <v>0</v>
+        <v>1544</v>
       </c>
       <c r="H114" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I114" s="1">
-        <v>0</v>
+        <v>781</v>
       </c>
       <c r="J114" s="1">
-        <v>0</v>
+        <v>16586</v>
       </c>
       <c r="K114" s="1">
-        <v>0</v>
+        <v>8259</v>
       </c>
       <c r="L114" s="1">
-        <v>0</v>
-      </c>
-      <c r="M114" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36490</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2015</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C115" s="4">
         <v>576.70000000000005</v>
       </c>
       <c r="D115" s="1">
-        <v>0</v>
+        <v>6822</v>
       </c>
       <c r="E115" s="1">
-        <v>0</v>
+        <v>1690</v>
       </c>
       <c r="F115" s="1">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="G115" s="1">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="H115" s="1">
-        <v>0</v>
+        <v>1955</v>
       </c>
       <c r="I115" s="1">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J115" s="1">
-        <v>0</v>
+        <v>888</v>
       </c>
       <c r="K115" s="1">
-        <v>0</v>
+        <v>15042</v>
       </c>
       <c r="L115" s="1">
-        <v>0</v>
-      </c>
-      <c r="M115" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10182</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2016</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C116" s="4">
         <v>576.70000000000005</v>
       </c>
       <c r="D116" s="1">
-        <v>0</v>
+        <v>7069</v>
       </c>
       <c r="E116" s="1">
-        <v>0</v>
+        <v>1354</v>
       </c>
       <c r="F116" s="1">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="G116" s="1">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="H116" s="1">
-        <v>0</v>
+        <v>2740</v>
       </c>
       <c r="I116" s="1">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="J116" s="1">
-        <v>0</v>
+        <v>872</v>
       </c>
       <c r="K116" s="1">
-        <v>0</v>
+        <v>16101</v>
       </c>
       <c r="L116" s="1">
-        <v>0</v>
-      </c>
-      <c r="M116" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11642</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2017</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C117" s="4">
         <v>576.70000000000005</v>
       </c>
       <c r="D117" s="1">
-        <v>0</v>
+        <v>8675</v>
       </c>
       <c r="E117" s="1">
-        <v>0</v>
+        <v>1377</v>
       </c>
       <c r="F117" s="1">
-        <v>0</v>
+        <v>1211</v>
       </c>
       <c r="G117" s="1">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="H117" s="1">
-        <v>0</v>
+        <v>4734</v>
       </c>
       <c r="I117" s="1">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="J117" s="1">
-        <v>0</v>
+        <v>1339</v>
       </c>
       <c r="K117" s="1">
-        <v>0</v>
+        <v>16252</v>
       </c>
       <c r="L117" s="1">
-        <v>0</v>
-      </c>
-      <c r="M117" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14764</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2018</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C118" s="4">
         <v>576.70000000000005</v>
       </c>
       <c r="D118" s="1">
-        <v>0</v>
+        <v>9417</v>
       </c>
       <c r="E118" s="1">
-        <v>0</v>
+        <v>1480</v>
       </c>
       <c r="F118" s="1">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="G118" s="1">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="H118" s="1">
-        <v>0</v>
+        <v>7860</v>
       </c>
       <c r="I118" s="1">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="J118" s="1">
-        <v>0</v>
+        <v>1576</v>
       </c>
       <c r="K118" s="1">
-        <v>0</v>
+        <v>16206</v>
       </c>
       <c r="L118" s="1">
-        <v>0</v>
-      </c>
-      <c r="M118" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19985</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2019</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C119" s="4">
         <v>576.70000000000005</v>
       </c>
       <c r="D119" s="1">
-        <v>0</v>
+        <v>8541</v>
       </c>
       <c r="E119" s="1">
-        <v>0</v>
+        <v>1517</v>
       </c>
       <c r="F119" s="1">
-        <v>0</v>
+        <v>1372</v>
       </c>
       <c r="G119" s="1">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H119" s="1">
-        <v>0</v>
+        <v>7882</v>
       </c>
       <c r="I119" s="1">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="J119" s="1">
-        <v>0</v>
+        <v>1543</v>
       </c>
       <c r="K119" s="1">
-        <v>0</v>
+        <v>15166</v>
       </c>
       <c r="L119" s="1">
-        <v>0</v>
-      </c>
-      <c r="M119" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20095</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2020</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C120" s="4">
         <v>576.70000000000005</v>
       </c>
       <c r="D120" s="1">
-        <v>0</v>
+        <v>6831</v>
       </c>
       <c r="E120" s="1">
-        <v>0</v>
+        <v>1817</v>
       </c>
       <c r="F120" s="1">
-        <v>0</v>
+        <v>1492</v>
       </c>
       <c r="G120" s="1">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="H120" s="1">
-        <v>0</v>
+        <v>7433</v>
       </c>
       <c r="I120" s="1">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="J120" s="1">
-        <v>0</v>
+        <v>1225</v>
       </c>
       <c r="K120" s="1">
-        <v>0</v>
+        <v>10396</v>
       </c>
       <c r="L120" s="1">
-        <v>0</v>
-      </c>
-      <c r="M120" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18250</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2021</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C121" s="4">
         <v>576.70000000000005</v>
       </c>
       <c r="D121" s="1">
-        <v>0</v>
+        <v>7988</v>
       </c>
       <c r="E121" s="1">
-        <v>0</v>
+        <v>1324</v>
       </c>
       <c r="F121" s="1">
-        <v>0</v>
+        <v>1433</v>
       </c>
       <c r="G121" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H121" s="1">
-        <v>0</v>
+        <v>8656</v>
       </c>
       <c r="I121" s="1">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="J121" s="1">
-        <v>0</v>
+        <v>1716</v>
       </c>
       <c r="K121" s="1">
-        <v>0</v>
+        <v>10706</v>
       </c>
       <c r="L121" s="1">
-        <v>0</v>
-      </c>
-      <c r="M121" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21193</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2014</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C122" s="4">
         <v>1984.4</v>
@@ -5481,326 +5117,302 @@
         <v>16883</v>
       </c>
       <c r="E122" s="1">
-        <v>0</v>
+        <v>5346</v>
       </c>
       <c r="F122" s="1">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="G122" s="1">
-        <v>0</v>
+        <v>7383</v>
       </c>
       <c r="H122" s="1">
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="I122" s="1">
-        <v>0</v>
+        <v>3330</v>
       </c>
       <c r="J122" s="1">
-        <v>0</v>
+        <v>47126</v>
       </c>
       <c r="K122" s="1">
-        <v>0</v>
+        <v>28531</v>
       </c>
       <c r="L122" s="1">
-        <v>0</v>
-      </c>
-      <c r="M122" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111836</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2015</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C123" s="4">
         <v>1984.4</v>
       </c>
       <c r="D123" s="1">
-        <v>0</v>
+        <v>17971</v>
       </c>
       <c r="E123" s="1">
-        <v>0</v>
+        <v>4223</v>
       </c>
       <c r="F123" s="1">
-        <v>0</v>
+        <v>2277</v>
       </c>
       <c r="G123" s="1">
-        <v>0</v>
+        <v>937</v>
       </c>
       <c r="H123" s="1">
-        <v>0</v>
+        <v>11150</v>
       </c>
       <c r="I123" s="1">
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="J123" s="1">
-        <v>0</v>
+        <v>4105</v>
       </c>
       <c r="K123" s="1">
-        <v>0</v>
+        <v>48336</v>
       </c>
       <c r="L123" s="1">
-        <v>0</v>
-      </c>
-      <c r="M123" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42862</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2016</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C124" s="4">
         <v>1984.4</v>
       </c>
       <c r="D124" s="1">
-        <v>0</v>
+        <v>19101</v>
       </c>
       <c r="E124" s="1">
-        <v>0</v>
+        <v>3548</v>
       </c>
       <c r="F124" s="1">
-        <v>0</v>
+        <v>2389</v>
       </c>
       <c r="G124" s="1">
-        <v>0</v>
+        <v>1146</v>
       </c>
       <c r="H124" s="1">
-        <v>0</v>
+        <v>13890</v>
       </c>
       <c r="I124" s="1">
-        <v>0</v>
+        <v>945</v>
       </c>
       <c r="J124" s="1">
-        <v>0</v>
+        <v>4997</v>
       </c>
       <c r="K124" s="1">
-        <v>0</v>
+        <v>54551</v>
       </c>
       <c r="L124" s="1">
-        <v>0</v>
-      </c>
-      <c r="M124" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2017</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C125" s="4">
         <v>1984.4</v>
       </c>
       <c r="D125" s="1">
-        <v>0</v>
+        <v>19157</v>
       </c>
       <c r="E125" s="1">
-        <v>0</v>
+        <v>3699</v>
       </c>
       <c r="F125" s="1">
-        <v>0</v>
+        <v>2876</v>
       </c>
       <c r="G125" s="1">
-        <v>0</v>
+        <v>1434</v>
       </c>
       <c r="H125" s="1">
-        <v>0</v>
+        <v>14956</v>
       </c>
       <c r="I125" s="1">
-        <v>0</v>
+        <v>1162</v>
       </c>
       <c r="J125" s="1">
-        <v>0</v>
+        <v>5614</v>
       </c>
       <c r="K125" s="1">
-        <v>0</v>
+        <v>58092</v>
       </c>
       <c r="L125" s="1">
-        <v>0</v>
-      </c>
-      <c r="M125" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52831</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2018</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C126" s="4">
         <v>1984.4</v>
       </c>
       <c r="D126" s="1">
-        <v>0</v>
+        <v>18570</v>
       </c>
       <c r="E126" s="1">
-        <v>0</v>
+        <v>3917</v>
       </c>
       <c r="F126" s="1">
-        <v>0</v>
+        <v>2626</v>
       </c>
       <c r="G126" s="1">
-        <v>0</v>
+        <v>1719</v>
       </c>
       <c r="H126" s="1">
-        <v>0</v>
+        <v>14976</v>
       </c>
       <c r="I126" s="1">
-        <v>0</v>
+        <v>1375</v>
       </c>
       <c r="J126" s="1">
-        <v>0</v>
+        <v>5834</v>
       </c>
       <c r="K126" s="1">
-        <v>0</v>
+        <v>54740</v>
       </c>
       <c r="L126" s="1">
-        <v>0</v>
-      </c>
-      <c r="M126" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56326</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2019</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C127" s="4">
         <v>1984.4</v>
       </c>
       <c r="D127" s="1">
-        <v>0</v>
+        <v>17161</v>
       </c>
       <c r="E127" s="1">
-        <v>0</v>
+        <v>4523</v>
       </c>
       <c r="F127" s="1">
-        <v>0</v>
+        <v>2681</v>
       </c>
       <c r="G127" s="1">
-        <v>0</v>
+        <v>1679</v>
       </c>
       <c r="H127" s="1">
-        <v>0</v>
+        <v>16033</v>
       </c>
       <c r="I127" s="1">
-        <v>0</v>
+        <v>1563</v>
       </c>
       <c r="J127" s="1">
-        <v>0</v>
+        <v>5728</v>
       </c>
       <c r="K127" s="1">
-        <v>0</v>
+        <v>51900</v>
       </c>
       <c r="L127" s="1">
-        <v>0</v>
-      </c>
-      <c r="M127" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60091</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2020</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C128" s="4">
         <v>1984.4</v>
       </c>
       <c r="D128" s="1">
-        <v>0</v>
+        <v>14211</v>
       </c>
       <c r="E128" s="1">
-        <v>0</v>
+        <v>5963</v>
       </c>
       <c r="F128" s="1">
-        <v>0</v>
+        <v>2515</v>
       </c>
       <c r="G128" s="1">
-        <v>0</v>
+        <v>1788</v>
       </c>
       <c r="H128" s="1">
-        <v>0</v>
+        <v>16826</v>
       </c>
       <c r="I128" s="1">
-        <v>0</v>
+        <v>1216</v>
       </c>
       <c r="J128" s="1">
-        <v>0</v>
+        <v>5362</v>
       </c>
       <c r="K128" s="1">
-        <v>0</v>
+        <v>35080</v>
       </c>
       <c r="L128" s="1">
-        <v>0</v>
-      </c>
-      <c r="M128" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56560</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2021</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C129" s="4">
         <v>1984.4</v>
       </c>
       <c r="D129" s="1">
-        <v>0</v>
+        <v>15666</v>
       </c>
       <c r="E129" s="1">
-        <v>0</v>
+        <v>5311</v>
       </c>
       <c r="F129" s="1">
-        <v>0</v>
+        <v>2576</v>
       </c>
       <c r="G129" s="1">
-        <v>0</v>
+        <v>1927</v>
       </c>
       <c r="H129" s="1">
-        <v>0</v>
+        <v>22182</v>
       </c>
       <c r="I129" s="1">
-        <v>0</v>
+        <v>1303</v>
       </c>
       <c r="J129" s="1">
-        <v>0</v>
+        <v>7175</v>
       </c>
       <c r="K129" s="1">
-        <v>0</v>
+        <v>41045</v>
       </c>
       <c r="L129" s="1">
-        <v>0</v>
-      </c>
-      <c r="M129" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74296</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2014</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C130" s="4">
         <v>1500.2</v>
@@ -5809,326 +5421,302 @@
         <v>8249</v>
       </c>
       <c r="E130" s="1">
-        <v>0</v>
+        <v>3646</v>
       </c>
       <c r="F130" s="1">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="G130" s="1">
-        <v>0</v>
+        <v>2392</v>
       </c>
       <c r="H130" s="1">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="I130" s="1">
-        <v>0</v>
+        <v>1196</v>
       </c>
       <c r="J130" s="1">
-        <v>0</v>
+        <v>27488</v>
       </c>
       <c r="K130" s="1">
-        <v>0</v>
+        <v>11562</v>
       </c>
       <c r="L130" s="1">
-        <v>0</v>
-      </c>
-      <c r="M130" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56598</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2015</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C131" s="4">
         <v>1500.2</v>
       </c>
       <c r="D131" s="1">
-        <v>0</v>
+        <v>8952</v>
       </c>
       <c r="E131" s="1">
-        <v>0</v>
+        <v>3263</v>
       </c>
       <c r="F131" s="1">
-        <v>0</v>
+        <v>1283</v>
       </c>
       <c r="G131" s="1">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="H131" s="1">
-        <v>0</v>
+        <v>3459</v>
       </c>
       <c r="I131" s="1">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="J131" s="1">
-        <v>0</v>
+        <v>1511</v>
       </c>
       <c r="K131" s="1">
-        <v>0</v>
+        <v>28249</v>
       </c>
       <c r="L131" s="1">
-        <v>0</v>
-      </c>
-      <c r="M131" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16245</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2016</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C132" s="4">
         <v>1500.2</v>
       </c>
       <c r="D132" s="1">
-        <v>0</v>
+        <v>9703</v>
       </c>
       <c r="E132" s="1">
-        <v>0</v>
+        <v>3237</v>
       </c>
       <c r="F132" s="1">
-        <v>0</v>
+        <v>1569</v>
       </c>
       <c r="G132" s="1">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="H132" s="1">
-        <v>0</v>
+        <v>5553</v>
       </c>
       <c r="I132" s="1">
-        <v>0</v>
+        <v>631</v>
       </c>
       <c r="J132" s="1">
-        <v>0</v>
+        <v>1713</v>
       </c>
       <c r="K132" s="1">
-        <v>0</v>
+        <v>30984</v>
       </c>
       <c r="L132" s="1">
-        <v>0</v>
-      </c>
-      <c r="M132" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20122</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2017</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C133" s="4">
         <v>1500.2</v>
       </c>
       <c r="D133" s="1">
-        <v>0</v>
+        <v>9898</v>
       </c>
       <c r="E133" s="1">
-        <v>0</v>
+        <v>3291</v>
       </c>
       <c r="F133" s="1">
-        <v>0</v>
+        <v>1678</v>
       </c>
       <c r="G133" s="1">
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="H133" s="1">
-        <v>0</v>
+        <v>5899</v>
       </c>
       <c r="I133" s="1">
-        <v>0</v>
+        <v>869</v>
       </c>
       <c r="J133" s="1">
-        <v>0</v>
+        <v>2116</v>
       </c>
       <c r="K133" s="1">
-        <v>0</v>
+        <v>35059</v>
       </c>
       <c r="L133" s="1">
-        <v>0</v>
-      </c>
-      <c r="M133" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23233</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2018</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C134" s="4">
         <v>1500.2</v>
       </c>
       <c r="D134" s="1">
-        <v>0</v>
+        <v>8981</v>
       </c>
       <c r="E134" s="1">
-        <v>0</v>
+        <v>3083</v>
       </c>
       <c r="F134" s="1">
-        <v>0</v>
+        <v>1916</v>
       </c>
       <c r="G134" s="1">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="H134" s="1">
-        <v>0</v>
+        <v>6350</v>
       </c>
       <c r="I134" s="1">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="J134" s="1">
-        <v>0</v>
+        <v>2338</v>
       </c>
       <c r="K134" s="1">
-        <v>0</v>
+        <v>36266</v>
       </c>
       <c r="L134" s="1">
-        <v>0</v>
-      </c>
-      <c r="M134" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25258</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2019</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C135" s="4">
         <v>1500.2</v>
       </c>
       <c r="D135" s="1">
-        <v>0</v>
+        <v>8670</v>
       </c>
       <c r="E135" s="1">
-        <v>0</v>
+        <v>3015</v>
       </c>
       <c r="F135" s="1">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="G135" s="1">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H135" s="1">
-        <v>0</v>
+        <v>5934</v>
       </c>
       <c r="I135" s="1">
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="J135" s="1">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="K135" s="1">
-        <v>0</v>
+        <v>34880</v>
       </c>
       <c r="L135" s="1">
-        <v>0</v>
-      </c>
-      <c r="M135" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26015</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2020</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C136" s="4">
         <v>1500.2</v>
       </c>
       <c r="D136" s="1">
-        <v>0</v>
+        <v>7236</v>
       </c>
       <c r="E136" s="1">
-        <v>0</v>
+        <v>3054</v>
       </c>
       <c r="F136" s="1">
-        <v>0</v>
+        <v>1528</v>
       </c>
       <c r="G136" s="1">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="H136" s="1">
-        <v>0</v>
+        <v>5669</v>
       </c>
       <c r="I136" s="1">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="J136" s="1">
-        <v>0</v>
+        <v>1984</v>
       </c>
       <c r="K136" s="1">
-        <v>0</v>
+        <v>25193</v>
       </c>
       <c r="L136" s="1">
-        <v>0</v>
-      </c>
-      <c r="M136" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25559</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2021</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C137" s="4">
         <v>1500.2</v>
       </c>
       <c r="D137" s="1">
-        <v>0</v>
+        <v>7439</v>
       </c>
       <c r="E137" s="1">
-        <v>0</v>
+        <v>2534</v>
       </c>
       <c r="F137" s="1">
-        <v>0</v>
+        <v>1432</v>
       </c>
       <c r="G137" s="1">
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="H137" s="1">
-        <v>0</v>
+        <v>5402</v>
       </c>
       <c r="I137" s="1">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="J137" s="1">
-        <v>0</v>
+        <v>2552</v>
       </c>
       <c r="K137" s="1">
-        <v>0</v>
+        <v>26543</v>
       </c>
       <c r="L137" s="1">
-        <v>0</v>
-      </c>
-      <c r="M137" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27475</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2014</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C138" s="4">
         <v>932.8</v>
@@ -6137,326 +5725,302 @@
         <v>10428</v>
       </c>
       <c r="E138" s="1">
-        <v>0</v>
+        <v>1980</v>
       </c>
       <c r="F138" s="1">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="G138" s="1">
-        <v>0</v>
+        <v>2413</v>
       </c>
       <c r="H138" s="1">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="I138" s="1">
-        <v>0</v>
+        <v>1707</v>
       </c>
       <c r="J138" s="1">
-        <v>0</v>
+        <v>34291</v>
       </c>
       <c r="K138" s="1">
-        <v>0</v>
+        <v>13698</v>
       </c>
       <c r="L138" s="1">
-        <v>0</v>
-      </c>
-      <c r="M138" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66313</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2015</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C139" s="4">
         <v>932.8</v>
       </c>
       <c r="D139" s="1">
-        <v>0</v>
+        <v>11474</v>
       </c>
       <c r="E139" s="1">
-        <v>0</v>
+        <v>1474</v>
       </c>
       <c r="F139" s="1">
-        <v>0</v>
+        <v>1060</v>
       </c>
       <c r="G139" s="1">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="H139" s="1">
-        <v>0</v>
+        <v>2522</v>
       </c>
       <c r="I139" s="1">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="J139" s="1">
-        <v>0</v>
+        <v>1858</v>
       </c>
       <c r="K139" s="1">
-        <v>0</v>
+        <v>33261</v>
       </c>
       <c r="L139" s="1">
-        <v>0</v>
-      </c>
-      <c r="M139" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16452</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2016</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C140" s="4">
         <v>932.8</v>
       </c>
       <c r="D140" s="1">
-        <v>0</v>
+        <v>12269</v>
       </c>
       <c r="E140" s="1">
-        <v>0</v>
+        <v>1382</v>
       </c>
       <c r="F140" s="1">
-        <v>0</v>
+        <v>1710</v>
       </c>
       <c r="G140" s="1">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="H140" s="1">
-        <v>0</v>
+        <v>3980</v>
       </c>
       <c r="I140" s="1">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="J140" s="1">
-        <v>0</v>
+        <v>2233</v>
       </c>
       <c r="K140" s="1">
-        <v>0</v>
+        <v>32970</v>
       </c>
       <c r="L140" s="1">
-        <v>0</v>
-      </c>
-      <c r="M140" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21793</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2017</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C141" s="4">
         <v>932.8</v>
       </c>
       <c r="D141" s="1">
-        <v>0</v>
+        <v>12608</v>
       </c>
       <c r="E141" s="1">
-        <v>0</v>
+        <v>1284</v>
       </c>
       <c r="F141" s="1">
-        <v>0</v>
+        <v>2029</v>
       </c>
       <c r="G141" s="1">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="H141" s="1">
-        <v>0</v>
+        <v>4899</v>
       </c>
       <c r="I141" s="1">
-        <v>0</v>
+        <v>859</v>
       </c>
       <c r="J141" s="1">
-        <v>0</v>
+        <v>3001</v>
       </c>
       <c r="K141" s="1">
-        <v>0</v>
+        <v>36161</v>
       </c>
       <c r="L141" s="1">
-        <v>0</v>
-      </c>
-      <c r="M141" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24929</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2018</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C142" s="4">
         <v>932.8</v>
       </c>
       <c r="D142" s="1">
-        <v>0</v>
+        <v>13098</v>
       </c>
       <c r="E142" s="1">
-        <v>0</v>
+        <v>1451</v>
       </c>
       <c r="F142" s="1">
-        <v>0</v>
+        <v>2507</v>
       </c>
       <c r="G142" s="1">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="H142" s="1">
-        <v>0</v>
+        <v>9528</v>
       </c>
       <c r="I142" s="1">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="J142" s="1">
-        <v>0</v>
+        <v>3283</v>
       </c>
       <c r="K142" s="1">
-        <v>0</v>
+        <v>36626</v>
       </c>
       <c r="L142" s="1">
-        <v>0</v>
-      </c>
-      <c r="M142" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34694</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2019</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C143" s="4">
         <v>932.8</v>
       </c>
       <c r="D143" s="1">
-        <v>0</v>
+        <v>12966</v>
       </c>
       <c r="E143" s="1">
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="F143" s="1">
-        <v>0</v>
+        <v>2398</v>
       </c>
       <c r="G143" s="1">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="H143" s="1">
-        <v>0</v>
+        <v>10446</v>
       </c>
       <c r="I143" s="1">
-        <v>0</v>
+        <v>919</v>
       </c>
       <c r="J143" s="1">
-        <v>0</v>
+        <v>2958</v>
       </c>
       <c r="K143" s="1">
-        <v>0</v>
+        <v>32914</v>
       </c>
       <c r="L143" s="1">
-        <v>0</v>
-      </c>
-      <c r="M143" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34755</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2020</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C144" s="4">
         <v>932.8</v>
       </c>
       <c r="D144" s="1">
-        <v>0</v>
+        <v>10431</v>
       </c>
       <c r="E144" s="1">
-        <v>0</v>
+        <v>2505</v>
       </c>
       <c r="F144" s="1">
-        <v>0</v>
+        <v>2480</v>
       </c>
       <c r="G144" s="1">
-        <v>0</v>
+        <v>572</v>
       </c>
       <c r="H144" s="1">
-        <v>0</v>
+        <v>11767</v>
       </c>
       <c r="I144" s="1">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="J144" s="1">
-        <v>0</v>
+        <v>2755</v>
       </c>
       <c r="K144" s="1">
-        <v>0</v>
+        <v>21217</v>
       </c>
       <c r="L144" s="1">
-        <v>0</v>
-      </c>
-      <c r="M144" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33461</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2021</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C145" s="4">
         <v>932.8</v>
       </c>
       <c r="D145" s="1">
-        <v>0</v>
+        <v>11602</v>
       </c>
       <c r="E145" s="1">
-        <v>0</v>
+        <v>1948</v>
       </c>
       <c r="F145" s="1">
-        <v>0</v>
+        <v>2735</v>
       </c>
       <c r="G145" s="1">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="H145" s="1">
-        <v>0</v>
+        <v>12062</v>
       </c>
       <c r="I145" s="1">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="J145" s="1">
-        <v>0</v>
+        <v>3049</v>
       </c>
       <c r="K145" s="1">
-        <v>0</v>
+        <v>22695</v>
       </c>
       <c r="L145" s="1">
-        <v>0</v>
-      </c>
-      <c r="M145" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36549</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2014</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C146" s="4">
         <v>1800.3</v>
@@ -6465,327 +6029,303 @@
         <v>17903</v>
       </c>
       <c r="E146" s="1">
-        <v>0</v>
+        <v>2978</v>
       </c>
       <c r="F146" s="1">
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="G146" s="1">
-        <v>0</v>
+        <v>2740</v>
       </c>
       <c r="H146" s="1">
-        <v>0</v>
+        <v>964</v>
       </c>
       <c r="I146" s="1">
-        <v>0</v>
+        <v>2626</v>
       </c>
       <c r="J146" s="1">
-        <v>0</v>
+        <v>52511</v>
       </c>
       <c r="K146" s="1">
-        <v>0</v>
+        <v>28624</v>
       </c>
       <c r="L146" s="1">
-        <v>0</v>
-      </c>
-      <c r="M146" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110287</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2015</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C147" s="4">
         <v>1800.3</v>
       </c>
       <c r="D147" s="1">
-        <v>0</v>
+        <v>18670</v>
       </c>
       <c r="E147" s="1">
-        <v>0</v>
+        <v>2866</v>
       </c>
       <c r="F147" s="1">
-        <v>0</v>
+        <v>1523</v>
       </c>
       <c r="G147" s="1">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="H147" s="1">
-        <v>0</v>
+        <v>2996</v>
       </c>
       <c r="I147" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="J147" s="1">
-        <v>0</v>
+        <v>3211</v>
       </c>
       <c r="K147" s="1">
-        <v>0</v>
+        <v>48805</v>
       </c>
       <c r="L147" s="1">
-        <v>0</v>
-      </c>
-      <c r="M147" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33084</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2016</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C148" s="4">
         <v>1800.3</v>
       </c>
       <c r="D148" s="1">
-        <v>0</v>
+        <v>19937</v>
       </c>
       <c r="E148" s="1">
-        <v>0</v>
+        <v>2746</v>
       </c>
       <c r="F148" s="1">
-        <v>0</v>
+        <v>2349</v>
       </c>
       <c r="G148" s="1">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="H148" s="1">
-        <v>0</v>
+        <v>4972</v>
       </c>
       <c r="I148" s="1">
-        <v>0</v>
+        <v>1166</v>
       </c>
       <c r="J148" s="1">
-        <v>0</v>
+        <v>4206</v>
       </c>
       <c r="K148" s="1">
-        <v>0</v>
+        <v>51120</v>
       </c>
       <c r="L148" s="1">
-        <v>0</v>
-      </c>
-      <c r="M148" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41212</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2017</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C149" s="4">
         <v>1800.3</v>
       </c>
       <c r="D149" s="1">
-        <v>0</v>
+        <v>22680</v>
       </c>
       <c r="E149" s="1">
-        <v>0</v>
+        <v>2701</v>
       </c>
       <c r="F149" s="1">
-        <v>0</v>
+        <v>4458</v>
       </c>
       <c r="G149" s="1">
-        <v>0</v>
+        <v>1089</v>
       </c>
       <c r="H149" s="1">
-        <v>0</v>
+        <v>15450</v>
       </c>
       <c r="I149" s="1">
-        <v>0</v>
+        <v>1567</v>
       </c>
       <c r="J149" s="1">
-        <v>0</v>
+        <v>6518</v>
       </c>
       <c r="K149" s="1">
-        <v>0</v>
+        <v>56004</v>
       </c>
       <c r="L149" s="1">
-        <v>0</v>
-      </c>
-      <c r="M149" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65617</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>2018</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C150" s="4">
         <v>1800.3</v>
       </c>
       <c r="D150" s="1">
-        <v>0</v>
+        <v>22741</v>
       </c>
       <c r="E150" s="1">
-        <v>0</v>
+        <v>3104</v>
       </c>
       <c r="F150" s="1">
-        <v>0</v>
+        <v>5407</v>
       </c>
       <c r="G150" s="1">
-        <v>0</v>
+        <v>1363</v>
       </c>
       <c r="H150" s="1">
-        <v>0</v>
+        <v>20551</v>
       </c>
       <c r="I150" s="1">
-        <v>0</v>
+        <v>1994</v>
       </c>
       <c r="J150" s="1">
-        <v>0</v>
+        <v>7177</v>
       </c>
       <c r="K150" s="1">
-        <v>0</v>
+        <v>58349</v>
       </c>
       <c r="L150" s="1">
-        <v>0</v>
-      </c>
-      <c r="M150" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79770</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2019</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C151" s="4">
         <v>1800.3</v>
       </c>
       <c r="D151" s="1">
-        <v>0</v>
+        <v>22509</v>
       </c>
       <c r="E151" s="1">
-        <v>0</v>
+        <v>3948</v>
       </c>
       <c r="F151" s="1">
-        <v>0</v>
+        <v>5672</v>
       </c>
       <c r="G151" s="1">
-        <v>0</v>
+        <v>1648</v>
       </c>
       <c r="H151" s="1">
-        <v>0</v>
+        <v>15533</v>
       </c>
       <c r="I151" s="1">
-        <v>0</v>
+        <v>1874</v>
       </c>
       <c r="J151" s="1">
-        <v>0</v>
+        <v>6666</v>
       </c>
       <c r="K151" s="1">
-        <v>0</v>
+        <v>57740</v>
       </c>
       <c r="L151" s="1">
-        <v>0</v>
-      </c>
-      <c r="M151" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75114</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2020</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C152" s="4">
         <v>1800.3</v>
       </c>
       <c r="D152" s="1">
-        <v>0</v>
+        <v>20031</v>
       </c>
       <c r="E152" s="1">
-        <v>0</v>
+        <v>4596</v>
       </c>
       <c r="F152" s="1">
-        <v>0</v>
+        <v>5749</v>
       </c>
       <c r="G152" s="1">
-        <v>0</v>
+        <v>1236</v>
       </c>
       <c r="H152" s="1">
-        <v>0</v>
+        <v>13946</v>
       </c>
       <c r="I152" s="1">
-        <v>0</v>
+        <v>1223</v>
       </c>
       <c r="J152" s="1">
-        <v>0</v>
+        <v>5676</v>
       </c>
       <c r="K152" s="1">
-        <v>0</v>
+        <v>37764</v>
       </c>
       <c r="L152" s="1">
-        <v>0</v>
-      </c>
-      <c r="M152" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76907</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2021</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C153" s="4">
         <v>1800.3</v>
       </c>
       <c r="D153" s="1">
-        <v>0</v>
+        <v>21811</v>
       </c>
       <c r="E153" s="1">
-        <v>0</v>
+        <v>4183</v>
       </c>
       <c r="F153" s="1">
-        <v>0</v>
+        <v>5813</v>
       </c>
       <c r="G153" s="1">
-        <v>0</v>
+        <v>1369</v>
       </c>
       <c r="H153" s="1">
-        <v>0</v>
+        <v>14912</v>
       </c>
       <c r="I153" s="1">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="J153" s="1">
-        <v>0</v>
+        <v>6929</v>
       </c>
       <c r="K153" s="1">
-        <v>0</v>
+        <v>41289</v>
       </c>
       <c r="L153" s="1">
-        <v>0</v>
-      </c>
-      <c r="M153" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>83387</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="161" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="162" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
